--- a/data608-vis/story1_files/merged_states_funding_population2.xlsx
+++ b/data608-vis/story1_files/merged_states_funding_population2.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afraser/Documents/src/cuny-datascience/data608-vis/story1_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{24F63D72-347E-1548-8F98-B2460C7EFE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0097C3A0-F4B7-4841-93E1-C94FA2EA089A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="880" windowWidth="38780" windowHeight="24480" xr2:uid="{2C1F9D2A-A998-DC42-B0F5-97FE1B931DCB}"/>
+    <workbookView xWindow="400" yWindow="880" windowWidth="38780" windowHeight="24480" activeTab="1" xr2:uid="{2C1F9D2A-A998-DC42-B0F5-97FE1B931DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_states_funding_populatio" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v5.0" hidden="1">merged_states_funding_populatio!$A$1</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">merged_states_funding_populatio!$A$2:$A$57</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">merged_states_funding_populatio!$B$1</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">merged_states_funding_populatio!$B$2:$B$57</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -53,19 +47,10 @@
     <t>color</t>
   </si>
   <si>
-    <t>alabama</t>
-  </si>
-  <si>
     <t>republican</t>
   </si>
   <si>
     <t>red</t>
-  </si>
-  <si>
-    <t>alaska</t>
-  </si>
-  <si>
-    <t>americansamoa</t>
   </si>
   <si>
     <t>none</t>
@@ -74,169 +59,178 @@
     <t>gray</t>
   </si>
   <si>
-    <t>arizona</t>
-  </si>
-  <si>
     <t>democrat</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>arkansas</t>
-  </si>
-  <si>
-    <t>california</t>
-  </si>
-  <si>
-    <t>colorado</t>
-  </si>
-  <si>
-    <t>connecticut</t>
-  </si>
-  <si>
-    <t>districtofcolumbia</t>
-  </si>
-  <si>
-    <t>florida</t>
-  </si>
-  <si>
-    <t>georgia</t>
-  </si>
-  <si>
-    <t>guam</t>
-  </si>
-  <si>
-    <t>hawaii</t>
-  </si>
-  <si>
-    <t>idaho</t>
-  </si>
-  <si>
-    <t>illinois</t>
-  </si>
-  <si>
-    <t>indiana</t>
-  </si>
-  <si>
-    <t>iowa</t>
-  </si>
-  <si>
-    <t>kansas</t>
-  </si>
-  <si>
-    <t>kentucky</t>
-  </si>
-  <si>
-    <t>louisiana</t>
-  </si>
-  <si>
-    <t>maine</t>
-  </si>
-  <si>
-    <t>maryland</t>
-  </si>
-  <si>
-    <t>massachusetts</t>
-  </si>
-  <si>
-    <t>michigan</t>
-  </si>
-  <si>
-    <t>minnesota</t>
-  </si>
-  <si>
-    <t>mississippi</t>
-  </si>
-  <si>
-    <t>missouri</t>
-  </si>
-  <si>
-    <t>montana</t>
-  </si>
-  <si>
-    <t>nebraska</t>
-  </si>
-  <si>
-    <t>nevada</t>
-  </si>
-  <si>
-    <t>newhampshire</t>
-  </si>
-  <si>
-    <t>newjersey</t>
-  </si>
-  <si>
-    <t>newmexico</t>
-  </si>
-  <si>
-    <t>newyork</t>
-  </si>
-  <si>
-    <t>northcarolina</t>
-  </si>
-  <si>
-    <t>northdakota</t>
-  </si>
-  <si>
-    <t>northernmarianaislands</t>
-  </si>
-  <si>
-    <t>ohio</t>
-  </si>
-  <si>
-    <t>oklahoma</t>
-  </si>
-  <si>
-    <t>oregon</t>
-  </si>
-  <si>
-    <t>pennsylvania</t>
-  </si>
-  <si>
-    <t>puertorico</t>
-  </si>
-  <si>
-    <t>rhodeisland</t>
-  </si>
-  <si>
-    <t>southcarolina</t>
-  </si>
-  <si>
-    <t>southdakota</t>
-  </si>
-  <si>
-    <t>tennessee</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
-    <t>utah</t>
-  </si>
-  <si>
-    <t>vermont</t>
-  </si>
-  <si>
-    <t>virginia</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>westvirginia</t>
-  </si>
-  <si>
-    <t>wisconsin</t>
-  </si>
-  <si>
-    <t>wyoming</t>
-  </si>
-  <si>
     <t>sfsd</t>
   </si>
   <si>
     <t>\</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>D.C.</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
   </si>
 </sst>
 </file>
@@ -834,8 +828,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23073880086368562"/>
-          <c:y val="2.404389240946294E-2"/>
+          <c:x val="0.23703451189815028"/>
+          <c:y val="2.4043892794431265E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -874,10 +868,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9877325600703139E-2"/>
-          <c:y val="8.1814648824920358E-2"/>
-          <c:w val="0.88872684975926775"/>
-          <c:h val="0.87013102763111017"/>
+          <c:x val="0.16696795747470269"/>
+          <c:y val="8.105533168464911E-2"/>
+          <c:w val="0.80163619085357118"/>
+          <c:h val="0.87620555026195968"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1948,166 +1942,166 @@
               <c:strCache>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>americansamoa</c:v>
+                  <c:v>American Samoa</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>northernmarianaislands</c:v>
+                  <c:v>Northern Mariana Islands</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>guam</c:v>
+                  <c:v>Guam</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>newhampshire</c:v>
+                  <c:v>New Hampshire</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>vermont</c:v>
+                  <c:v>Vermont</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>puertorico</c:v>
+                  <c:v>Puerto Rico</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>hawaii</c:v>
+                  <c:v>Hawaii</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>maine</c:v>
+                  <c:v>Maine</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>rhodeisland</c:v>
+                  <c:v>Rhode Island</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>districtofcolumbia</c:v>
+                  <c:v>D.C.</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>idaho</c:v>
+                  <c:v>Idaho</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>nebraska</c:v>
+                  <c:v>Nebraska</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>southdakota</c:v>
+                  <c:v>South Dakota</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>kansas</c:v>
+                  <c:v>Kansas</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>nevada</c:v>
+                  <c:v>Nevada</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>utah</c:v>
+                  <c:v>Utah</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>northdakota</c:v>
+                  <c:v>North Dakota</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>westvirginia</c:v>
+                  <c:v>West Virginia</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>southcarolina</c:v>
+                  <c:v>South Carolina</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>oregon</c:v>
+                  <c:v>Oregon</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>mississippi</c:v>
+                  <c:v>Mississippi</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>wyoming</c:v>
+                  <c:v>Wyoming</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>iowa</c:v>
+                  <c:v>Iowa</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>connecticut</c:v>
+                  <c:v>Connecticut</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>newmexico</c:v>
+                  <c:v>New Mexico</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>maryland</c:v>
+                  <c:v>Maryland</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>minnesota</c:v>
+                  <c:v>Minnesota</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>wisconsin</c:v>
+                  <c:v>Wisconsin</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>arkansas</c:v>
+                  <c:v>Arkansas</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>oklahoma</c:v>
+                  <c:v>Oklahoma</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>alabama</c:v>
+                  <c:v>Alabama</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>colorado</c:v>
+                  <c:v>Colorado</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>montana</c:v>
+                  <c:v>Montana</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>indiana</c:v>
+                  <c:v>Indiana</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>arizona</c:v>
+                  <c:v>Arizona</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>massachusetts</c:v>
+                  <c:v>Massachusetts</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>tennessee</c:v>
+                  <c:v>Tennessee</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>alaska</c:v>
+                  <c:v>Alaska</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>missouri</c:v>
+                  <c:v>Missouri</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>kentucky</c:v>
+                  <c:v>Kentucky</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>washington</c:v>
+                  <c:v>Washington</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>louisiana</c:v>
+                  <c:v>Louisiana</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>northcarolina</c:v>
+                  <c:v>North Carolina</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>virginia</c:v>
+                  <c:v>Virginia</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>georgia</c:v>
+                  <c:v>Georgia</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>newjersey</c:v>
+                  <c:v>New Jersey</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>michigan</c:v>
+                  <c:v>Michigan</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>ohio</c:v>
+                  <c:v>Ohio</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>pennsylvania</c:v>
+                  <c:v>Pennsylvania</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>florida</c:v>
+                  <c:v>Florida</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>illinois</c:v>
+                  <c:v>Illinois</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>newyork</c:v>
+                  <c:v>New York</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>texas</c:v>
+                  <c:v>Texas</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>california</c:v>
+                  <c:v>California</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2321,166 +2315,166 @@
               <c:strCache>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>americansamoa</c:v>
+                  <c:v>American Samoa</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>northernmarianaislands</c:v>
+                  <c:v>Northern Mariana Islands</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>guam</c:v>
+                  <c:v>Guam</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>newhampshire</c:v>
+                  <c:v>New Hampshire</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>vermont</c:v>
+                  <c:v>Vermont</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>puertorico</c:v>
+                  <c:v>Puerto Rico</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>hawaii</c:v>
+                  <c:v>Hawaii</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>maine</c:v>
+                  <c:v>Maine</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>rhodeisland</c:v>
+                  <c:v>Rhode Island</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>districtofcolumbia</c:v>
+                  <c:v>D.C.</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>idaho</c:v>
+                  <c:v>Idaho</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>nebraska</c:v>
+                  <c:v>Nebraska</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>southdakota</c:v>
+                  <c:v>South Dakota</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>kansas</c:v>
+                  <c:v>Kansas</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>nevada</c:v>
+                  <c:v>Nevada</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>utah</c:v>
+                  <c:v>Utah</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>northdakota</c:v>
+                  <c:v>North Dakota</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>westvirginia</c:v>
+                  <c:v>West Virginia</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>southcarolina</c:v>
+                  <c:v>South Carolina</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>oregon</c:v>
+                  <c:v>Oregon</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>mississippi</c:v>
+                  <c:v>Mississippi</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>wyoming</c:v>
+                  <c:v>Wyoming</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>iowa</c:v>
+                  <c:v>Iowa</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>connecticut</c:v>
+                  <c:v>Connecticut</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>newmexico</c:v>
+                  <c:v>New Mexico</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>maryland</c:v>
+                  <c:v>Maryland</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>minnesota</c:v>
+                  <c:v>Minnesota</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>wisconsin</c:v>
+                  <c:v>Wisconsin</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>arkansas</c:v>
+                  <c:v>Arkansas</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>oklahoma</c:v>
+                  <c:v>Oklahoma</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>alabama</c:v>
+                  <c:v>Alabama</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>colorado</c:v>
+                  <c:v>Colorado</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>montana</c:v>
+                  <c:v>Montana</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>indiana</c:v>
+                  <c:v>Indiana</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>arizona</c:v>
+                  <c:v>Arizona</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>massachusetts</c:v>
+                  <c:v>Massachusetts</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>tennessee</c:v>
+                  <c:v>Tennessee</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>alaska</c:v>
+                  <c:v>Alaska</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>missouri</c:v>
+                  <c:v>Missouri</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>kentucky</c:v>
+                  <c:v>Kentucky</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>washington</c:v>
+                  <c:v>Washington</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>louisiana</c:v>
+                  <c:v>Louisiana</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>northcarolina</c:v>
+                  <c:v>North Carolina</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>virginia</c:v>
+                  <c:v>Virginia</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>georgia</c:v>
+                  <c:v>Georgia</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>newjersey</c:v>
+                  <c:v>New Jersey</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>michigan</c:v>
+                  <c:v>Michigan</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>ohio</c:v>
+                  <c:v>Ohio</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>pennsylvania</c:v>
+                  <c:v>Pennsylvania</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>florida</c:v>
+                  <c:v>Florida</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>illinois</c:v>
+                  <c:v>Illinois</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>newyork</c:v>
+                  <c:v>New York</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>texas</c:v>
+                  <c:v>Texas</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>california</c:v>
+                  <c:v>California</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2703,7 +2697,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2826,6 +2820,2201 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Funding Allocations: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="3000" b="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Infrastructure Investment and Jobs Act </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Theoretical </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Allocation </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Per Capita</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>versus Actual </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Partisan Allocations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1800" b="1" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18513529392271552"/>
+          <c:y val="3.7608032005708024E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16696795747470269"/>
+          <c:y val="8.105533168464911E-2"/>
+          <c:w val="0.80163619085357118"/>
+          <c:h val="0.87620555026195968"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>merged_states_funding_populatio!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-35D1-6744-82A6-86C4B72F1F88}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>merged_states_funding_populatio!$A$2:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>American Samoa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Northern Mariana Islands</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Hampshire</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vermont</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puerto Rico</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hawaii</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Maine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhode Island</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>D.C.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Idaho</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nebraska</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>South Dakota</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Utah</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>West Virginia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>South Carolina</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Oregon</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Mississippi</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Wyoming</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>New Mexico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Arkansas</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Arizona</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Missouri</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Washington</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>California</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>merged_states_funding_populatio!$B$2:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>6.8599999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000006C-35D1-6744-82A6-86C4B72F1F88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>merged_states_funding_populatio!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>expected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>merged_states_funding_populatio!$A$2:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>American Samoa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Northern Mariana Islands</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Hampshire</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vermont</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puerto Rico</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hawaii</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Maine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhode Island</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>D.C.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Idaho</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nebraska</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>South Dakota</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Utah</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>West Virginia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>South Carolina</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Oregon</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Mississippi</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Wyoming</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>New Mexico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Arkansas</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Arizona</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Missouri</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Washington</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>California</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>merged_states_funding_populatio!$E$2:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.88</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.38</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000006D-35D1-6744-82A6-86C4B72F1F88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1645698256"/>
+        <c:axId val="1380575023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1645698256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380575023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1380575023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645698256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2866,7 +5055,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3519,8 +6253,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>569839</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>99732</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>23963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3760,7 +6494,7 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>25263</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2091085" cy="264431"/>
+    <xdr:ext cx="1528303" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="TextBox 16">
@@ -3774,8 +6508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13134791" y="10148451"/>
-          <a:ext cx="2091085" cy="264431"/>
+          <a:off x="13108051" y="10209225"/>
+          <a:ext cx="1528303" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3803,14 +6537,17 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Actual</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Allocation (Republican)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Republican Disbursements</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3823,7 +6560,7 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>71446</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2014078" cy="264431"/>
+    <xdr:ext cx="1524200" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="TextBox 17">
@@ -3837,8 +6574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13135850" y="10397098"/>
-          <a:ext cx="2014078" cy="264431"/>
+          <a:off x="13109110" y="10459088"/>
+          <a:ext cx="1524200" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3866,14 +6603,17 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Actual</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Allocation (Democratic)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Democrat Disbursements</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3886,7 +6626,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>111663</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1701491" cy="264431"/>
+    <xdr:ext cx="2529731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="TextBox 18">
@@ -3900,8 +6640,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13139025" y="10639779"/>
-          <a:ext cx="1701491" cy="264431"/>
+          <a:off x="13112285" y="10702984"/>
+          <a:ext cx="2529731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3929,20 +6669,1498 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Equitable</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Expected Allocation Based on Population</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> distribution mark</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>189907</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B196E81-04EB-3B48-AE48-7E2F575D9E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71283</cdr:x>
+      <cdr:y>0.76522</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72886</cdr:x>
+      <cdr:y>0.77607</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B2768F-CB55-A144-B8DE-A9E20A6B99DE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10704163" y="15522035"/>
+          <a:ext cx="240823" cy="220090"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71305</cdr:x>
+      <cdr:y>0.78218</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7295</cdr:x>
+      <cdr:y>0.79241</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAAA10A-6CCC-5D4B-963F-502846F79946}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10707561" y="15866180"/>
+          <a:ext cx="246958" cy="207395"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71287</cdr:x>
+      <cdr:y>0.7498</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7289</cdr:x>
+      <cdr:y>0.76058</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7005F1-EC9E-2A4F-83D7-992D452B3957}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10704789" y="15209421"/>
+          <a:ext cx="240823" cy="218553"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72661</cdr:x>
+      <cdr:y>0.76175</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88173</cdr:x>
+      <cdr:y>0.78036</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C60F07-5564-C4EF-35CB-51019F0BFA35}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10911163" y="15451800"/>
+          <a:ext cx="2329359" cy="377434"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Allocation (Republican)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72631</cdr:x>
+      <cdr:y>0.77731</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88384</cdr:x>
+      <cdr:y>0.79592</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 17">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB20836-B026-CE4A-BEF9-745FA55D9D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10906690" y="15767409"/>
+          <a:ext cx="2365545" cy="377434"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Allocation (Democratic)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72656</cdr:x>
+      <cdr:y>0.74672</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9345</cdr:x>
+      <cdr:y>0.76431</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 18">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C684888-209D-B54A-9C06-45A26CD63E0F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10925944" y="15879108"/>
+          <a:ext cx="3127010" cy="374077"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Theoritical Allocation Per Capita</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43814</cdr:x>
+      <cdr:y>0.97275</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56679</cdr:x>
+      <cdr:y>0.99306</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01983E1-88E2-C211-A4F2-8B39361F3EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6619226" y="20192657"/>
+          <a:ext cx="1943609" cy="421582"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Billions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> of Dollars</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71359</cdr:x>
+      <cdr:y>0.79741</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72962</cdr:x>
+      <cdr:y>0.80818</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B334E8-BD03-4E17-4C44-D60C1C80A0AA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10719834" y="16688772"/>
+          <a:ext cx="240919" cy="225494"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72686</cdr:x>
+      <cdr:y>0.79315</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89391</cdr:x>
+      <cdr:y>0.81074</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 18">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8634C8-4925-73F2-2F31-B0B6E4E86A41}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10930572" y="16866360"/>
+          <a:ext cx="2511970" cy="374077"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Allocation (Non-Partison)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4264,12 +8482,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7961959-EA14-C542-9CDE-50FFE117C493}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" zoomScaleNormal="391" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView topLeftCell="A15" zoomScale="106" zoomScaleNormal="391" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
   </cols>
@@ -4302,7 +8521,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>6.8599999999999994E-2</v>
@@ -4311,7 +8530,7 @@
         <v>43914</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0.03</v>
@@ -4323,12 +8542,12 @@
         <v>174.17</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>8.3299999999999999E-2</v>
@@ -4337,7 +8556,7 @@
         <v>49796</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0.03</v>
@@ -4349,12 +8568,12 @@
         <v>193.59</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.1426</v>
@@ -4363,7 +8582,7 @@
         <v>172952</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -4375,15 +8594,15 @@
         <v>44.71</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.75180000000000002</v>
@@ -4392,7 +8611,7 @@
         <v>1402054</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0.8</v>
@@ -4404,12 +8623,12 @@
         <v>-5.89</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.85209999999999997</v>
@@ -4418,7 +8637,7 @@
         <v>647464</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0.37</v>
@@ -4430,12 +8649,12 @@
         <v>130.97999999999999</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0.99370000000000003</v>
@@ -4444,7 +8663,7 @@
         <v>3205691</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>1.83</v>
@@ -4456,12 +8675,12 @@
         <v>-45.6</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4470,7 +8689,7 @@
         <v>1435138</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0.82</v>
@@ -4482,12 +8701,12 @@
         <v>22.29</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>1.1000000000000001</v>
@@ -4496,7 +8715,7 @@
         <v>1395722</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0.8</v>
@@ -4508,12 +8727,12 @@
         <v>38.32</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1.1000000000000001</v>
@@ -4522,7 +8741,7 @@
         <v>1095962</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0.62</v>
@@ -4534,12 +8753,12 @@
         <v>76.150000000000006</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>1.1000000000000001</v>
@@ -4548,7 +8767,7 @@
         <v>678972</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0.39</v>
@@ -4560,12 +8779,12 @@
         <v>184.34</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1.2</v>
@@ -4574,7 +8793,7 @@
         <v>1964726</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>1.1200000000000001</v>
@@ -4586,12 +8805,12 @@
         <v>7.19</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>1.3</v>
@@ -4600,7 +8819,7 @@
         <v>1978379</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>1.1299999999999999</v>
@@ -4612,12 +8831,12 @@
         <v>15.33</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1.3</v>
@@ -4626,7 +8845,7 @@
         <v>919318</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0.52</v>
@@ -4638,12 +8857,12 @@
         <v>148.18</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>1.5</v>
@@ -4652,7 +8871,7 @@
         <v>2940546</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>1.68</v>
@@ -4664,12 +8883,12 @@
         <v>-10.47</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>1.7</v>
@@ -4678,7 +8897,7 @@
         <v>3194176</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>1.82</v>
@@ -4690,12 +8909,12 @@
         <v>-6.59</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>1.8</v>
@@ -4704,7 +8923,7 @@
         <v>3417734</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>1.95</v>
@@ -4716,12 +8935,12 @@
         <v>-7.57</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>1.8</v>
@@ -4730,7 +8949,7 @@
         <v>783926</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0.45</v>
@@ -4742,12 +8961,12 @@
         <v>302.99</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -4756,7 +8975,7 @@
         <v>1770071</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>1.01</v>
@@ -4768,12 +8987,12 @@
         <v>98.31</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>2.2999999999999998</v>
@@ -4782,7 +9001,7 @@
         <v>5373555</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>3.06</v>
@@ -4794,12 +9013,12 @@
         <v>-24.88</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>2.2999999999999998</v>
@@ -4808,7 +9027,7 @@
         <v>4233358</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>2.41</v>
@@ -4820,12 +9039,12 @@
         <v>-4.6500000000000004</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>2.2999999999999998</v>
@@ -4834,7 +9053,7 @@
         <v>2939690</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>1.67</v>
@@ -4846,12 +9065,12 @@
         <v>37.32</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>2.2999999999999998</v>
@@ -4860,7 +9079,7 @@
         <v>584057</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0.33</v>
@@ -4872,12 +9091,12 @@
         <v>591.14</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>2.4</v>
@@ -4886,7 +9105,7 @@
         <v>3207004</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>1.83</v>
@@ -4898,12 +9117,12 @@
         <v>31.34</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>2.5</v>
@@ -4912,7 +9131,7 @@
         <v>3617176</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>2.06</v>
@@ -4924,12 +9143,12 @@
         <v>21.3</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>2.6</v>
@@ -4938,7 +9157,7 @@
         <v>2114371</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>1.2</v>
@@ -4950,12 +9169,12 @@
         <v>115.82</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>2.7</v>
@@ -4964,7 +9183,7 @@
         <v>6180253</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>3.52</v>
@@ -4976,12 +9195,12 @@
         <v>-23.33</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>2.7</v>
@@ -4990,7 +9209,7 @@
         <v>5737915</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>3.27</v>
@@ -5002,12 +9221,12 @@
         <v>-17.41</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>2.8</v>
@@ -5016,7 +9235,7 @@
         <v>5910955</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>3.37</v>
@@ -5028,12 +9247,12 @@
         <v>-16.86</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>2.8</v>
@@ -5042,7 +9261,7 @@
         <v>3067732</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>1.75</v>
@@ -5054,12 +9273,12 @@
         <v>60.19</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>2.9</v>
@@ -5068,7 +9287,7 @@
         <v>4053824</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>2.31</v>
@@ -5080,12 +9299,12 @@
         <v>25.55</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -5094,7 +9313,7 @@
         <v>5108468</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>2.91</v>
@@ -5106,12 +9325,12 @@
         <v>3.07</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>3.2</v>
@@ -5120,7 +9339,7 @@
         <v>5877610</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>3.35</v>
@@ -5132,12 +9351,12 @@
         <v>-4.45</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>3.3</v>
@@ -5146,7 +9365,7 @@
         <v>1132812</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>0.65</v>
@@ -5158,12 +9377,12 @@
         <v>411.27</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>3.4</v>
@@ -5172,7 +9391,7 @@
         <v>6862199</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>3.91</v>
@@ -5184,12 +9403,12 @@
         <v>-13.04</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>3.5</v>
@@ -5198,7 +9417,7 @@
         <v>7431344</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>4.2300000000000004</v>
@@ -5210,12 +9429,12 @@
         <v>-17.34</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>3.6</v>
@@ -5224,7 +9443,7 @@
         <v>7001399</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>3.99</v>
@@ -5236,12 +9455,12 @@
         <v>-9.76</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>3.7</v>
@@ -5250,7 +9469,7 @@
         <v>7126489</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>4.0599999999999996</v>
@@ -5262,12 +9481,12 @@
         <v>-8.8800000000000008</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>3.7</v>
@@ -5276,7 +9495,7 @@
         <v>733406</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>0.42</v>
@@ -5288,12 +9507,12 @@
         <v>785.43</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>3.8</v>
@@ -5302,7 +9521,7 @@
         <v>6196156</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>3.53</v>
@@ -5314,12 +9533,12 @@
         <v>7.64</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>3.9</v>
@@ -5328,7 +9547,7 @@
         <v>4526154</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>2.58</v>
@@ -5340,12 +9559,12 @@
         <v>51.23</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -5354,7 +9573,7 @@
         <v>7812880</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E42">
         <v>4.45</v>
@@ -5366,12 +9585,12 @@
         <v>-10.14</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>4.3</v>
@@ -5380,7 +9599,7 @@
         <v>4573749</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>2.61</v>
@@ -5392,12 +9611,12 @@
         <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>4.5</v>
@@ -5406,7 +9625,7 @@
         <v>10835491</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>6.17</v>
@@ -5418,12 +9637,12 @@
         <v>-27.11</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>4.5</v>
@@ -5432,7 +9651,7 @@
         <v>8715698</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E45">
         <v>4.97</v>
@@ -5444,12 +9663,12 @@
         <v>-9.3800000000000008</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -5458,7 +9677,7 @@
         <v>11029227</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>6.28</v>
@@ -5470,12 +9689,12 @@
         <v>-20.440000000000001</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>5.0999999999999996</v>
@@ -5484,7 +9703,7 @@
         <v>9290841</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <v>5.29</v>
@@ -5496,12 +9715,12 @@
         <v>-3.66</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>5.2</v>
@@ -5510,7 +9729,7 @@
         <v>10037261</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <v>5.72</v>
@@ -5522,12 +9741,12 @@
         <v>-9.08</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>6.6</v>
@@ -5536,7 +9755,7 @@
         <v>11785935</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>6.72</v>
@@ -5548,12 +9767,12 @@
         <v>-1.72</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>8.1</v>
@@ -5562,7 +9781,7 @@
         <v>12961683</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E50">
         <v>7.39</v>
@@ -5574,12 +9793,12 @@
         <v>9.68</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>8.1999999999999993</v>
@@ -5588,7 +9807,7 @@
         <v>22610726</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>12.88</v>
@@ -5600,12 +9819,12 @@
         <v>-36.35</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>8.4</v>
@@ -5614,7 +9833,7 @@
         <v>12549689</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E52">
         <v>7.15</v>
@@ -5626,12 +9845,12 @@
         <v>17.47</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>10.1</v>
@@ -5640,7 +9859,7 @@
         <v>19571216</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <v>11.15</v>
@@ -5652,12 +9871,12 @@
         <v>-9.43</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>14.2</v>
@@ -5666,7 +9885,7 @@
         <v>30503301</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>17.38</v>
@@ -5678,12 +9897,12 @@
         <v>-18.3</v>
       </c>
       <c r="H54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>18.399999999999999</v>
@@ -5692,7 +9911,7 @@
         <v>38965193</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E55">
         <v>22.2</v>
@@ -5704,7 +9923,7 @@
         <v>-17.12</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5712,26 +9931,32 @@
     <sortCondition ref="B2:B56"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A8947F-EC0B-6749-ADE4-54E0B9EA54E4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="K69" zoomScale="264" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U93" sqref="U93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="41" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>